--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/MONTANA_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/MONTANA_2012.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,931 +360,732 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.4516129032257993E-2</t>
-        </is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.06451612903225799</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.4516129032257993E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.06451612903225799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Cuauhtemoc</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>CUSIHUIRIACHI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Cusihuiriachi</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>GRAN MORELOS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Gran Morelos</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.6774193548386997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.09677419354838701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TORREON</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Torreon</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COLIMA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Azcapotzalco</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Iztapalapa</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.4516129032257993E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.06451612903225799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CELAYA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>ROMITA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Romita</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Salvatierra</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAN JOSE ITURBIDE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>San Jose Iturbide</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.12903225806451599</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.129032258064516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Chilpancingo De Los Bravo</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Tecoanapa</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Tlalixtaquilla De Maldonado</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.6774193548386997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.09677419354838701</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VALLE DE GUADALUPE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Valle De Guadalupe</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Naucalpan De Juarez</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TONATICO</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Tonatico</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.4516129032257993E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.06451612903225799</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ARIO</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Ario</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHARO</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Charo</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.4516129032257993E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.06451612903225799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Santiago Ixcuintla</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QUERETARO DE ARTEAGA</t>
+          <t>Queretaro De Arteaga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>QUERETARO</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSI</t>
+          <t>San Luis Potosi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Rioverde</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>XALTOCAN</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Xaltocan</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Huayacocotla</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>MINATITLAN</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Minatitlan</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>6.4516129032257993E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0.06451612903225799</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>YUCATAN</t>
+          <t>Yucatan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PETO</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Peto</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>APOZOL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Apozol</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Chalchihuites</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.2258064516128997E-2</t>
-        </is>
+          <t>Fresnillo</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.032258064516129</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>9.6774193548386997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0.09677419354838701</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Noviembre del 2013</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/MONTANA_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/MONTANA_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -838,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -869,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -900,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -931,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -962,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -975,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1006,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1037,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -1050,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -1063,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
